--- a/OperationTable.xlsx
+++ b/OperationTable.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puescheo\sep16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7C4A65E9-76D8-45DA-919E-63142ABA2AAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9987E4AD-270F-4A03-8C7D-51414C51FFD7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="0" windowWidth="26010" windowHeight="16095" xr2:uid="{FDE6DC2B-9087-45A5-BE6A-9F0BC1FC5F1A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="sep-16 opcodes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
